--- a/biology/Zoologie/Cydninae/Cydninae.xlsx
+++ b/biology/Zoologie/Cydninae/Cydninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cydnini, Geotomini
 Les Cydninae sont une sous-famille d'insectes du sous-ordre des hétéroptères (punaises), de la famille des Cydnidae. Elle contient deux tribus Cydnini et Geotomini.
@@ -512,11 +524,48 @@
           <t>Tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (18 décembre 2022)[1] :
-Cydnini
-Blaena Walker, 1868
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (18 décembre 2022) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cydninae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydninae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tribus et genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cydnini</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaena Walker, 1868
 Blaenocoris J.A. Lis, 1997
 Centrostephus Horváth, 1919
 Chilocoris Mayr, 1865 i c g b
@@ -525,8 +574,44 @@
 Nishadana Distant, 1899
 Nishocoris Lis, 1997
 More genera ...
-Data sources: i = ITIS[2], c = Catalogue of Life[3], g = GBIF[4], b = Bugguide.net[5]
-Geotomini
+Data sources: i = ITIS, c = Catalogue of Life, g = GBIF, b = Bugguide.net
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cydninae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydninae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tribus et genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Geotomini</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Adrisa Amyot &amp; Audinet-Serville, 1843
 Aethoscytus Lis, 1994
 Aethus Dallas, 1851
@@ -578,7 +663,7 @@
 Shansia Esaki &amp; Ishihara, 1951
 Shillukia Linnavuori, 1977
 Teabooma Distant, 1914
-Tominotus Mulsant &amp; Rey, 1866[2],[3],[4],[5]
+Tominotus Mulsant &amp; Rey, 1866
 </t>
         </is>
       </c>
